--- a/data/zh-cn/character.xlsx
+++ b/data/zh-cn/character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28724"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hanze\Project\Code\git\lifeRestart\data\zh-cn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD09BD7F-D8DE-4EDC-A25C-A6C767A4750D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F5D374-2E1B-475E-9D6D-61B7E2FAA1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="character" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="642">
   <si>
     <t>人名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2446,6 +2446,50 @@
   </si>
   <si>
     <t>1045</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PZB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HZP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9609</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1125</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>308</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>666</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2032</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1147</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2799,21 +2843,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G105" sqref="G105"/>
+      <selection pane="bottomRight" activeCell="K104" sqref="K104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="27.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="27.65" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="17.44140625" style="1"/>
+    <col min="1" max="16384" width="17.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2848,7 +2892,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2883,7 +2927,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2912,7 +2956,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2947,7 +2991,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2976,7 +3020,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -3008,7 +3052,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -3040,7 +3084,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -3072,7 +3116,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -3107,7 +3151,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -3139,7 +3183,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -3174,7 +3218,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -3206,7 +3250,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -3238,7 +3282,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -3264,7 +3308,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -3299,7 +3343,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -3331,7 +3375,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -3363,7 +3407,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -3389,7 +3433,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -3421,7 +3465,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -3456,7 +3500,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -3491,7 +3535,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -3526,7 +3570,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -3561,7 +3605,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -3593,7 +3637,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>116</v>
       </c>
@@ -3622,7 +3666,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>117</v>
       </c>
@@ -3651,7 +3695,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>118</v>
       </c>
@@ -3686,7 +3730,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>119</v>
       </c>
@@ -3718,7 +3762,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>120</v>
       </c>
@@ -3750,7 +3794,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>121</v>
       </c>
@@ -3779,7 +3823,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>122</v>
       </c>
@@ -3814,7 +3858,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>123</v>
       </c>
@@ -3846,7 +3890,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>124</v>
       </c>
@@ -3878,7 +3922,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>125</v>
       </c>
@@ -3910,7 +3954,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>98</v>
       </c>
@@ -3942,7 +3986,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>126</v>
       </c>
@@ -3974,7 +4018,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>127</v>
       </c>
@@ -4003,7 +4047,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>128</v>
       </c>
@@ -4032,7 +4076,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>129</v>
       </c>
@@ -4064,7 +4108,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>130</v>
       </c>
@@ -4093,7 +4137,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>131</v>
       </c>
@@ -4122,7 +4166,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>132</v>
       </c>
@@ -4151,7 +4195,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>133</v>
       </c>
@@ -4183,7 +4227,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>134</v>
       </c>
@@ -4218,7 +4262,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>135</v>
       </c>
@@ -4241,7 +4285,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>99</v>
       </c>
@@ -4270,7 +4314,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>136</v>
       </c>
@@ -4299,7 +4343,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>137</v>
       </c>
@@ -4331,7 +4375,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>138</v>
       </c>
@@ -4360,7 +4404,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>139</v>
       </c>
@@ -4395,7 +4439,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>140</v>
       </c>
@@ -4427,7 +4471,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>141</v>
       </c>
@@ -4462,7 +4506,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>142</v>
       </c>
@@ -4497,7 +4541,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>143</v>
       </c>
@@ -4532,7 +4576,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>144</v>
       </c>
@@ -4561,7 +4605,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>145</v>
       </c>
@@ -4593,7 +4637,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>100</v>
       </c>
@@ -4622,7 +4666,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>146</v>
       </c>
@@ -4654,7 +4698,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>147</v>
       </c>
@@ -4686,7 +4730,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>148</v>
       </c>
@@ -4712,7 +4756,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>149</v>
       </c>
@@ -4735,7 +4779,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>150</v>
       </c>
@@ -4767,7 +4811,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>151</v>
       </c>
@@ -4799,7 +4843,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>152</v>
       </c>
@@ -4828,7 +4872,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>153</v>
       </c>
@@ -4860,7 +4904,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>154</v>
       </c>
@@ -4892,7 +4936,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>155</v>
       </c>
@@ -4924,7 +4968,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>101</v>
       </c>
@@ -4953,7 +4997,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>156</v>
       </c>
@@ -4982,7 +5026,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>157</v>
       </c>
@@ -5017,7 +5061,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>158</v>
       </c>
@@ -5052,7 +5096,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>159</v>
       </c>
@@ -5084,7 +5128,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>160</v>
       </c>
@@ -5113,7 +5157,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>161</v>
       </c>
@@ -5148,7 +5192,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>162</v>
       </c>
@@ -5183,7 +5227,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>163</v>
       </c>
@@ -5215,7 +5259,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>164</v>
       </c>
@@ -5250,7 +5294,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>165</v>
       </c>
@@ -5285,7 +5329,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>102</v>
       </c>
@@ -5314,7 +5358,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>166</v>
       </c>
@@ -5349,7 +5393,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>167</v>
       </c>
@@ -5378,7 +5422,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>168</v>
       </c>
@@ -5413,7 +5457,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>169</v>
       </c>
@@ -5448,7 +5492,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>170</v>
       </c>
@@ -5480,7 +5524,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>171</v>
       </c>
@@ -5512,7 +5556,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>172</v>
       </c>
@@ -5544,7 +5588,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>173</v>
       </c>
@@ -5576,7 +5620,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>174</v>
       </c>
@@ -5611,7 +5655,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>175</v>
       </c>
@@ -5646,7 +5690,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>103</v>
       </c>
@@ -5675,7 +5719,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>176</v>
       </c>
@@ -5710,7 +5754,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>177</v>
       </c>
@@ -5745,7 +5789,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>178</v>
       </c>
@@ -5771,7 +5815,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>179</v>
       </c>
@@ -5794,7 +5838,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>180</v>
       </c>
@@ -5829,7 +5873,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>181</v>
       </c>
@@ -5861,7 +5905,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>182</v>
       </c>
@@ -5893,7 +5937,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>183</v>
       </c>
@@ -5928,7 +5972,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>184</v>
       </c>
@@ -5960,7 +6004,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>185</v>
       </c>
@@ -5992,7 +6036,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>104</v>
       </c>
@@ -6027,7 +6071,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>186</v>
       </c>
@@ -6057,6 +6101,73 @@
       </c>
       <c r="J102" s="1" t="s">
         <v>629</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>641</v>
       </c>
     </row>
   </sheetData>
